--- a/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>5,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-10,06</t>
+          <t>-2,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-5,14</t>
+          <t>-0,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-20,82%</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-47,9%</t>
+          <t>37,54%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-26,93%</t>
+          <t>-18,38%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-6,43%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-15,37%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 7,84</t>
+          <t>-9,35; 21,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,4; 0,59</t>
+          <t>-16,52; 12,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 4,95</t>
+          <t>-13,89; 15,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-56,85; 54,71</t>
+          <t>-18,75; 18,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,43; 5,97</t>
+          <t>-43,98; 318,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-63,89; 42,82</t>
+          <t>-69,17; 194,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-66,48; 237,34</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-63,37; 163,43</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>-1,32</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-37,59%</t>
+          <t>-1,83</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>-43,91%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>-36,07%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,22%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-31,25%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,96; 0,98</t>
+          <t>-6,31; 1,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 2,3</t>
+          <t>-4,97; 2,17</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 4,45</t>
+          <t>-4,43; 2,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,21; 36,13</t>
+          <t>-6,65; 3,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,73; 80,08</t>
+          <t>-89,93; 142,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-50,19; 124,01</t>
+          <t>-88,18; 161,67</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-87,63; 206,81</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-82,59; 137,78</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-2,52</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,07%</t>
+          <t>-2,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-26,78%</t>
+          <t>-55,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-13,35%</t>
+          <t>-69,76%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-56,6%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-53,72%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 2,29</t>
+          <t>-5,17; 1,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 1,94</t>
+          <t>-7,04; 0,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,77; 2,44</t>
+          <t>-6,98; 0,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-75,45; 213,08</t>
+          <t>-7,73; 1,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,46; 158,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-71,19; 158,29</t>
+          <t>-100,0; 74,92</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 94,71</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 116,26</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,77%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-30,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,97%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,71; 0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 0,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-52,31; 12,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-58,54; 7,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-40,02; 48,14</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-2,04</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,35</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,98</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-19,05%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-38,44%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-25,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-25,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-4,13; 2,09</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,93; 0,72</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 1,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,99; 2,26</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-60,64; 61,47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-70,26; 22,88</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-62,04; 54,01</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-58,66; 41,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25_1-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>5,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,87</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-3,1</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>37,54%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-18,38%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-6,43%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-15,37%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>4.516711691030281</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-2.527687710098037</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.6717500905455975</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4239575026244946</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.3572072460856481</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.1684209832066764</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-0.04812869057899808</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.02374174553039974</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,35; 21,64</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; 12,32</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-13,89; 15,9</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-18,75; 18,49</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-43,98; 318,96</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-69,17; 194,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-66,48; 237,34</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-63,37; 163,43</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-8.434951578067549</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.40819141169021</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.31685335063329</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-14.72245563978562</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4591905203757707</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.6991793832792836</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.6679104363428724</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.5940666263814968</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>19.75284905336101</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.17054592398222</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>15.89538821203346</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>21.64965002663871</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>3.042406491012263</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.901894774352373</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.500847300835554</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.250623754733971</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,32</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-0,77</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,83</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-43,91%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-36,07%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,22%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-31,25%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-6,31; 1,95</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-4,97; 2,17</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-4,43; 2,98</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 3,68</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-89,93; 142,36</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-88,18; 161,67</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-87,63; 206,81</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-82,59; 137,78</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-1.728945243714098</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.271282692444372</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.6658469556178239</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.085848330018086</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4217565843734475</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.3450065633497311</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1938145381929678</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.3652712999251199</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,52</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,34</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-55,01%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-69,76%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-56,6%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-53,72%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-5.685614800089139</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-5.203200704137211</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-4.287116155606691</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-6.771389824158224</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.8976002423393238</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.9011240145564077</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8747888178269673</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.8487064654607898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-5,17; 1,35</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 0,08</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-6,98; 0,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-7,73; 1,17</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 74,92</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 94,71</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 116,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.975406971713577</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.539281326010371</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>3.569671769903128</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.251535550138421</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>1.522072183788121</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>1.870256866542405</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.531359013886093</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>1.266548743549669</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +827,207 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-1.428447070903216</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.473248915224288</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.388036838536438</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-2.391346865925785</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>-0.548807796047205</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.7094430788515054</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.5981149381669897</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.552118204202705</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.782782276640255</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-6.830178436946103</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.851951764725007</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.350980789691754</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.10351668444247</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.03870739570945649</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.4682414315827123</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.045229674789894</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>0.745206922719588</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.7672496914825769</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.9947333747944155</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,99</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-2,04</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,35</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,98</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-19,05%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-38,44%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-25,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-25,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-4,13; 2,09</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; 0,72</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-4,32; 1,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,99; 2,26</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-60,64; 61,47</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-70,26; 22,88</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-62,04; 54,01</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-58,66; 41,43</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.8478518983941579</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.82085948209176</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.143913591114555</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-1.354668842738765</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.1798329885668852</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.3570443213446943</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.2247277465476248</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.1868619718346226</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.823816848664102</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-4.65750766053657</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.89701791744768</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-5.254973602216212</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.6057326228382091</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.6881925464049794</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.5966470157629344</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5604347991413114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.903129976327551</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.9736730128381885</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.968936896597055</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>2.969796761713488</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.6129440635696563</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.3053428605789531</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6765691801241331</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.5376722595579959</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
